--- a/산출물/MS-TODO-WBS-정자윤.xlsx
+++ b/산출물/MS-TODO-WBS-정자윤.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Git\Todo\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0030747C-C972-4FFC-A111-DD267B556EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF968C0E-2EEE-4C63-A13D-494FC73F6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2475,107 +2475,6 @@
     <xf numFmtId="9" fontId="28" fillId="11" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2586,6 +2485,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2629,6 +2534,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2888,7 +2888,7 @@
       <pane xSplit="20" ySplit="5" topLeftCell="AI6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15" customHeight="1"/>
@@ -2933,9 +2933,9 @@
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="12"/>
@@ -3024,141 +3024,141 @@
     </row>
     <row r="3" spans="1:50" ht="21" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="183" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="184"/>
-      <c r="H3" s="202" t="s">
+      <c r="G3" s="187"/>
+      <c r="H3" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="194" t="s">
+      <c r="J3" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="194" t="s">
+      <c r="K3" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="194" t="s">
+      <c r="L3" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="194" t="s">
+      <c r="M3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="194" t="s">
+      <c r="N3" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="194" t="s">
+      <c r="O3" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="194" t="s">
+      <c r="P3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="205" t="s">
+      <c r="Q3" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="207" t="s">
+      <c r="R3" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="210"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="197"/>
-      <c r="AJ3" s="197"/>
-      <c r="AK3" s="197"/>
-      <c r="AL3" s="197"/>
-      <c r="AM3" s="197"/>
-      <c r="AN3" s="197"/>
-      <c r="AO3" s="197"/>
-      <c r="AP3" s="197"/>
-      <c r="AQ3" s="197"/>
-      <c r="AR3" s="197"/>
-      <c r="AS3" s="197"/>
-      <c r="AT3" s="197"/>
-      <c r="AU3" s="197"/>
-      <c r="AV3" s="197"/>
-      <c r="AW3" s="197"/>
-      <c r="AX3" s="197"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="162"/>
+      <c r="AH3" s="162"/>
+      <c r="AI3" s="162"/>
+      <c r="AJ3" s="162"/>
+      <c r="AK3" s="162"/>
+      <c r="AL3" s="162"/>
+      <c r="AM3" s="162"/>
+      <c r="AN3" s="162"/>
+      <c r="AO3" s="162"/>
+      <c r="AP3" s="162"/>
+      <c r="AQ3" s="162"/>
+      <c r="AR3" s="162"/>
+      <c r="AS3" s="162"/>
+      <c r="AT3" s="162"/>
+      <c r="AU3" s="162"/>
+      <c r="AV3" s="162"/>
+      <c r="AW3" s="162"/>
+      <c r="AX3" s="162"/>
     </row>
     <row r="4" spans="1:50" ht="18.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="208"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="175"/>
       <c r="S4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="T4" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="196" t="s">
+      <c r="U4" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
-      <c r="X4" s="196"/>
-      <c r="Y4" s="196"/>
-      <c r="Z4" s="196"/>
-      <c r="AA4" s="196"/>
-      <c r="AB4" s="196"/>
-      <c r="AC4" s="196"/>
-      <c r="AD4" s="196"/>
-      <c r="AE4" s="196"/>
-      <c r="AF4" s="196"/>
-      <c r="AG4" s="196"/>
-      <c r="AH4" s="196"/>
-      <c r="AI4" s="196"/>
-      <c r="AJ4" s="196"/>
-      <c r="AK4" s="196"/>
-      <c r="AL4" s="196"/>
-      <c r="AM4" s="196"/>
-      <c r="AN4" s="196"/>
-      <c r="AO4" s="196"/>
-      <c r="AP4" s="196"/>
-      <c r="AQ4" s="196"/>
-      <c r="AR4" s="196"/>
-      <c r="AS4" s="196"/>
-      <c r="AT4" s="196"/>
-      <c r="AU4" s="196"/>
-      <c r="AV4" s="196"/>
-      <c r="AW4" s="196"/>
-      <c r="AX4" s="196"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="161"/>
+      <c r="AH4" s="161"/>
+      <c r="AI4" s="161"/>
+      <c r="AJ4" s="161"/>
+      <c r="AK4" s="161"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="161"/>
+      <c r="AN4" s="161"/>
+      <c r="AO4" s="161"/>
+      <c r="AP4" s="161"/>
+      <c r="AQ4" s="161"/>
+      <c r="AR4" s="161"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="161"/>
+      <c r="AU4" s="161"/>
+      <c r="AV4" s="161"/>
+      <c r="AW4" s="161"/>
+      <c r="AX4" s="161"/>
     </row>
     <row r="5" spans="1:50" ht="18" customHeight="1">
       <c r="A5" s="3"/>
@@ -3166,13 +3166,13 @@
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="198" t="s">
+      <c r="D5" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="199"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="204"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="171"/>
       <c r="I5" s="108">
         <f>MIN(I6:I26)</f>
         <v>45390</v>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="L5" s="109">
         <f>MAX(L6:L26)</f>
-        <v>45402</v>
+        <v>45410</v>
       </c>
       <c r="M5" s="110">
         <f t="shared" ref="M5:R5" si="0">M27</f>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="N5" s="110">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="O5" s="110">
         <f t="shared" si="0"/>
@@ -3324,11 +3324,11 @@
         <v>20</v>
       </c>
       <c r="E6" s="102"/>
-      <c r="F6" s="189" t="s">
+      <c r="F6" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="190"/>
-      <c r="H6" s="192" t="s">
+      <c r="G6" s="193"/>
+      <c r="H6" s="197" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="51">
@@ -3406,11 +3406,11 @@
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
       <c r="E7" s="103"/>
-      <c r="F7" s="181" t="s">
+      <c r="F7" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="182"/>
-      <c r="H7" s="193"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="198"/>
       <c r="I7" s="149">
         <v>45390</v>
       </c>
@@ -3492,10 +3492,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="179" t="s">
+      <c r="F8" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="180"/>
+      <c r="G8" s="185"/>
       <c r="H8" s="133" t="s">
         <v>44</v>
       </c>
@@ -3574,10 +3574,10 @@
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
       <c r="E9" s="103"/>
-      <c r="F9" s="181" t="s">
+      <c r="F9" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="182"/>
+      <c r="G9" s="195"/>
       <c r="H9" s="134" t="s">
         <v>46</v>
       </c>
@@ -3664,10 +3664,10 @@
       <c r="E10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="179" t="s">
+      <c r="F10" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="180"/>
+      <c r="G10" s="185"/>
       <c r="H10" s="135"/>
       <c r="I10" s="155">
         <v>45400</v>
@@ -3746,10 +3746,10 @@
       <c r="E11" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="173" t="s">
+      <c r="F11" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="174"/>
+      <c r="G11" s="200"/>
       <c r="H11" s="136"/>
       <c r="I11" s="60">
         <v>45400</v>
@@ -3826,10 +3826,10 @@
       <c r="C12" s="29"/>
       <c r="D12" s="35"/>
       <c r="E12" s="104"/>
-      <c r="F12" s="175" t="s">
+      <c r="F12" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="176"/>
+      <c r="G12" s="202"/>
       <c r="H12" s="137"/>
       <c r="I12" s="51">
         <v>45400</v>
@@ -3910,10 +3910,10 @@
       <c r="C13" s="29"/>
       <c r="D13" s="35"/>
       <c r="E13" s="104"/>
-      <c r="F13" s="175" t="s">
+      <c r="F13" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="176"/>
+      <c r="G13" s="202"/>
       <c r="H13" s="137"/>
       <c r="I13" s="51">
         <v>45401</v>
@@ -3924,14 +3924,16 @@
       <c r="K13" s="51">
         <v>45402</v>
       </c>
-      <c r="L13" s="51"/>
+      <c r="L13" s="51">
+        <v>45404</v>
+      </c>
       <c r="M13" s="50">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N13" s="52" t="str">
+      <c r="N13" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O13" s="50"/>
       <c r="P13" s="52" t="s">
@@ -3990,10 +3992,10 @@
       <c r="C14" s="29"/>
       <c r="D14" s="35"/>
       <c r="E14" s="104"/>
-      <c r="F14" s="175" t="s">
+      <c r="F14" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="176"/>
+      <c r="G14" s="202"/>
       <c r="H14" s="137"/>
       <c r="I14" s="51">
         <v>45401</v>
@@ -4004,14 +4006,16 @@
       <c r="K14" s="51">
         <v>45402</v>
       </c>
-      <c r="L14" s="51"/>
+      <c r="L14" s="51">
+        <v>45404</v>
+      </c>
       <c r="M14" s="50">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N14" s="52" t="str">
+      <c r="N14" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O14" s="50"/>
       <c r="P14" s="52" t="s">
@@ -4070,10 +4074,10 @@
       <c r="C15" s="29"/>
       <c r="D15" s="35"/>
       <c r="E15" s="105"/>
-      <c r="F15" s="177" t="s">
+      <c r="F15" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="178"/>
+      <c r="G15" s="204"/>
       <c r="H15" s="138"/>
       <c r="I15" s="149">
         <v>45404</v>
@@ -4081,7 +4085,9 @@
       <c r="J15" s="149">
         <v>45405</v>
       </c>
-      <c r="K15" s="149"/>
+      <c r="K15" s="149">
+        <v>45410</v>
+      </c>
       <c r="L15" s="149"/>
       <c r="M15" s="50">
         <f t="shared" si="5"/>
@@ -4152,10 +4158,10 @@
       <c r="E16" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="168" t="s">
+      <c r="F16" s="212" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="169"/>
+      <c r="G16" s="213"/>
       <c r="H16" s="139"/>
       <c r="I16" s="60">
         <v>45400</v>
@@ -4236,10 +4242,10 @@
       <c r="C17" s="29"/>
       <c r="D17" s="35"/>
       <c r="E17" s="104"/>
-      <c r="F17" s="164" t="s">
+      <c r="F17" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="165"/>
+      <c r="G17" s="209"/>
       <c r="H17" s="140"/>
       <c r="I17" s="51">
         <v>45400</v>
@@ -4320,10 +4326,10 @@
       <c r="C18" s="29"/>
       <c r="D18" s="35"/>
       <c r="E18" s="104"/>
-      <c r="F18" s="164" t="s">
+      <c r="F18" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="165"/>
+      <c r="G18" s="209"/>
       <c r="H18" s="138"/>
       <c r="I18" s="51">
         <v>45402</v>
@@ -4334,14 +4340,16 @@
       <c r="K18" s="51">
         <v>45403</v>
       </c>
-      <c r="L18" s="51"/>
+      <c r="L18" s="51">
+        <v>45409</v>
+      </c>
       <c r="M18" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N18" s="52" t="str">
+      <c r="N18" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="O18" s="50" t="s">
         <v>38</v>
@@ -4402,10 +4410,10 @@
       <c r="C19" s="29"/>
       <c r="D19" s="35"/>
       <c r="E19" s="104"/>
-      <c r="F19" s="164" t="s">
+      <c r="F19" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="165"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="137"/>
       <c r="I19" s="51">
         <v>45401</v>
@@ -4416,14 +4424,16 @@
       <c r="K19" s="51">
         <v>45403</v>
       </c>
-      <c r="L19" s="51"/>
+      <c r="L19" s="51">
+        <v>45407</v>
+      </c>
       <c r="M19" s="50">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N19" s="52" t="str">
+      <c r="N19" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O19" s="50" t="s">
         <v>38</v>
@@ -4484,10 +4494,10 @@
       <c r="C20" s="29"/>
       <c r="D20" s="35"/>
       <c r="E20" s="104"/>
-      <c r="F20" s="164" t="s">
+      <c r="F20" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="165"/>
+      <c r="G20" s="209"/>
       <c r="H20" s="137"/>
       <c r="I20" s="51">
         <v>45401</v>
@@ -4495,15 +4505,19 @@
       <c r="J20" s="51">
         <v>45403</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="K20" s="51">
+        <v>45408</v>
+      </c>
+      <c r="L20" s="51">
+        <v>45410</v>
+      </c>
       <c r="M20" s="50">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N20" s="52" t="str">
+      <c r="N20" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O20" s="50" t="s">
         <v>38</v>
@@ -4564,10 +4578,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="35"/>
       <c r="E21" s="104"/>
-      <c r="F21" s="164" t="s">
+      <c r="F21" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="165"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="137"/>
       <c r="I21" s="51">
         <v>45404</v>
@@ -4575,15 +4589,19 @@
       <c r="J21" s="51">
         <v>45404</v>
       </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="K21" s="51">
+        <v>45408</v>
+      </c>
+      <c r="L21" s="51">
+        <v>45408</v>
+      </c>
       <c r="M21" s="50">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N21" s="52" t="str">
+      <c r="N21" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O21" s="50" t="s">
         <v>38</v>
@@ -4644,10 +4662,10 @@
       <c r="C22" s="29"/>
       <c r="D22" s="35"/>
       <c r="E22" s="104"/>
-      <c r="F22" s="164" t="s">
+      <c r="F22" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="165"/>
+      <c r="G22" s="209"/>
       <c r="H22" s="141"/>
       <c r="I22" s="51">
         <v>45404</v>
@@ -4655,15 +4673,19 @@
       <c r="J22" s="51">
         <v>45406</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="K22" s="51">
+        <v>45406</v>
+      </c>
+      <c r="L22" s="51">
+        <v>45410</v>
+      </c>
       <c r="M22" s="50">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N22" s="52" t="str">
+      <c r="N22" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O22" s="50"/>
       <c r="P22" s="52" t="s">
@@ -4733,7 +4755,9 @@
       <c r="J23" s="51">
         <v>45408</v>
       </c>
-      <c r="K23" s="51"/>
+      <c r="K23" s="51">
+        <v>45410</v>
+      </c>
       <c r="L23" s="51"/>
       <c r="M23" s="50">
         <f t="shared" si="5"/>
@@ -4800,10 +4824,10 @@
       <c r="C24" s="34"/>
       <c r="D24" s="36"/>
       <c r="E24" s="104"/>
-      <c r="F24" s="166" t="s">
+      <c r="F24" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="167"/>
+      <c r="G24" s="211"/>
       <c r="H24" s="143"/>
       <c r="I24" s="149">
         <v>45401</v>
@@ -4814,14 +4838,16 @@
       <c r="K24" s="149">
         <v>45401</v>
       </c>
-      <c r="L24" s="149"/>
+      <c r="L24" s="149">
+        <v>45410</v>
+      </c>
       <c r="M24" s="50">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N24" s="52" t="str">
+      <c r="N24" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="O24" s="150" t="s">
         <v>38</v>
@@ -4888,10 +4914,10 @@
         <v>26</v>
       </c>
       <c r="E25" s="106"/>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="172"/>
+      <c r="G25" s="216"/>
       <c r="H25" s="144"/>
       <c r="I25" s="155">
         <v>45409</v>
@@ -4899,15 +4925,19 @@
       <c r="J25" s="155">
         <v>45410</v>
       </c>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
+      <c r="K25" s="155">
+        <v>45410</v>
+      </c>
+      <c r="L25" s="155">
+        <v>45410</v>
+      </c>
       <c r="M25" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N25" s="52" t="str">
+      <c r="N25" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O25" s="156"/>
       <c r="P25" s="151" t="s">
@@ -4972,10 +5002,10 @@
         <v>27</v>
       </c>
       <c r="E26" s="120"/>
-      <c r="F26" s="170" t="s">
+      <c r="F26" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="170"/>
+      <c r="G26" s="214"/>
       <c r="H26" s="145"/>
       <c r="I26" s="100">
         <v>45411</v>
@@ -5046,12 +5076,12 @@
     </row>
     <row r="27" spans="1:50" ht="33" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
       <c r="H27" s="111"/>
       <c r="I27" s="111"/>
       <c r="J27" s="111"/>
@@ -5063,7 +5093,7 @@
       </c>
       <c r="N27" s="114">
         <f>SUM(N6:N26)</f>
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="O27" s="112">
         <f>SUM(O6:O26)</f>
@@ -7870,6 +7900,34 @@
     <row r="976" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F3:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="U4:AX4"/>
     <mergeCell ref="U3:AX3"/>
     <mergeCell ref="D5:E5"/>
@@ -7882,34 +7940,6 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F3:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="M6:M26">
@@ -7952,7 +7982,7 @@
       <formula>AND(U$5 &gt;= $I6, U$5 &lt;= $J6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="H6" xr:uid="{481B59C7-FAFC-4436-9B91-CF4D6B0B91A9}"/>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="I6:L26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I6))), AND(ISNUMBER(I6), LEFT(CELL("format", I6))="D"))</formula1>

--- a/산출물/MS-TODO-WBS-정자윤.xlsx
+++ b/산출물/MS-TODO-WBS-정자윤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Git\Todo\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF968C0E-2EEE-4C63-A13D-494FC73F6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA51BB4-52A5-4CE8-8A73-2C6D650144B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2475,6 +2475,107 @@
     <xf numFmtId="9" fontId="28" fillId="11" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2485,12 +2586,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2534,101 +2629,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2885,10 +2885,10 @@
   <dimension ref="A1:AX976"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="20" ySplit="5" topLeftCell="AI6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="20" ySplit="5" topLeftCell="AH6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15" customHeight="1"/>
@@ -2933,9 +2933,9 @@
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="12"/>
@@ -3024,141 +3024,141 @@
     </row>
     <row r="3" spans="1:50" ht="21" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="186" t="s">
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="187"/>
-      <c r="H3" s="169" t="s">
+      <c r="G3" s="184"/>
+      <c r="H3" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="165" t="s">
+      <c r="J3" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="165" t="s">
+      <c r="K3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="165" t="s">
+      <c r="L3" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="165" t="s">
+      <c r="M3" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="165" t="s">
+      <c r="N3" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="165" t="s">
+      <c r="O3" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="165" t="s">
+      <c r="P3" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="172" t="s">
+      <c r="Q3" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="174" t="s">
+      <c r="R3" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="176" t="s">
+      <c r="S3" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="177"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="162"/>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="162"/>
-      <c r="AM3" s="162"/>
-      <c r="AN3" s="162"/>
-      <c r="AO3" s="162"/>
-      <c r="AP3" s="162"/>
-      <c r="AQ3" s="162"/>
-      <c r="AR3" s="162"/>
-      <c r="AS3" s="162"/>
-      <c r="AT3" s="162"/>
-      <c r="AU3" s="162"/>
-      <c r="AV3" s="162"/>
-      <c r="AW3" s="162"/>
-      <c r="AX3" s="162"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="197"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="197"/>
+      <c r="AJ3" s="197"/>
+      <c r="AK3" s="197"/>
+      <c r="AL3" s="197"/>
+      <c r="AM3" s="197"/>
+      <c r="AN3" s="197"/>
+      <c r="AO3" s="197"/>
+      <c r="AP3" s="197"/>
+      <c r="AQ3" s="197"/>
+      <c r="AR3" s="197"/>
+      <c r="AS3" s="197"/>
+      <c r="AT3" s="197"/>
+      <c r="AU3" s="197"/>
+      <c r="AV3" s="197"/>
+      <c r="AW3" s="197"/>
+      <c r="AX3" s="197"/>
     </row>
     <row r="4" spans="1:50" ht="18.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="175"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="208"/>
       <c r="S4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="T4" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="161" t="s">
+      <c r="U4" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="161"/>
-      <c r="AH4" s="161"/>
-      <c r="AI4" s="161"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="161"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="161"/>
-      <c r="AN4" s="161"/>
-      <c r="AO4" s="161"/>
-      <c r="AP4" s="161"/>
-      <c r="AQ4" s="161"/>
-      <c r="AR4" s="161"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="161"/>
-      <c r="AU4" s="161"/>
-      <c r="AV4" s="161"/>
-      <c r="AW4" s="161"/>
-      <c r="AX4" s="161"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
+      <c r="X4" s="196"/>
+      <c r="Y4" s="196"/>
+      <c r="Z4" s="196"/>
+      <c r="AA4" s="196"/>
+      <c r="AB4" s="196"/>
+      <c r="AC4" s="196"/>
+      <c r="AD4" s="196"/>
+      <c r="AE4" s="196"/>
+      <c r="AF4" s="196"/>
+      <c r="AG4" s="196"/>
+      <c r="AH4" s="196"/>
+      <c r="AI4" s="196"/>
+      <c r="AJ4" s="196"/>
+      <c r="AK4" s="196"/>
+      <c r="AL4" s="196"/>
+      <c r="AM4" s="196"/>
+      <c r="AN4" s="196"/>
+      <c r="AO4" s="196"/>
+      <c r="AP4" s="196"/>
+      <c r="AQ4" s="196"/>
+      <c r="AR4" s="196"/>
+      <c r="AS4" s="196"/>
+      <c r="AT4" s="196"/>
+      <c r="AU4" s="196"/>
+      <c r="AV4" s="196"/>
+      <c r="AW4" s="196"/>
+      <c r="AX4" s="196"/>
     </row>
     <row r="5" spans="1:50" ht="18" customHeight="1">
       <c r="A5" s="3"/>
@@ -3166,13 +3166,13 @@
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="163" t="s">
+      <c r="D5" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="164"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="171"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="204"/>
       <c r="I5" s="108">
         <f>MIN(I6:I26)</f>
         <v>45390</v>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="L5" s="109">
         <f>MAX(L6:L26)</f>
-        <v>45410</v>
+        <v>45412</v>
       </c>
       <c r="M5" s="110">
         <f t="shared" ref="M5:R5" si="0">M27</f>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="N5" s="110">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O5" s="110">
         <f t="shared" si="0"/>
@@ -3324,11 +3324,11 @@
         <v>20</v>
       </c>
       <c r="E6" s="102"/>
-      <c r="F6" s="192" t="s">
+      <c r="F6" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="193"/>
-      <c r="H6" s="197" t="s">
+      <c r="G6" s="190"/>
+      <c r="H6" s="192" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="51">
@@ -3406,11 +3406,11 @@
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
       <c r="E7" s="103"/>
-      <c r="F7" s="194" t="s">
+      <c r="F7" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="195"/>
-      <c r="H7" s="198"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="193"/>
       <c r="I7" s="149">
         <v>45390</v>
       </c>
@@ -3492,10 +3492,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="185"/>
+      <c r="G8" s="180"/>
       <c r="H8" s="133" t="s">
         <v>44</v>
       </c>
@@ -3574,10 +3574,10 @@
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
       <c r="E9" s="103"/>
-      <c r="F9" s="194" t="s">
+      <c r="F9" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="195"/>
+      <c r="G9" s="182"/>
       <c r="H9" s="134" t="s">
         <v>46</v>
       </c>
@@ -3664,10 +3664,10 @@
       <c r="E10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="185"/>
+      <c r="G10" s="180"/>
       <c r="H10" s="135"/>
       <c r="I10" s="155">
         <v>45400</v>
@@ -3746,10 +3746,10 @@
       <c r="E11" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="199" t="s">
+      <c r="F11" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="200"/>
+      <c r="G11" s="174"/>
       <c r="H11" s="136"/>
       <c r="I11" s="60">
         <v>45400</v>
@@ -3826,10 +3826,10 @@
       <c r="C12" s="29"/>
       <c r="D12" s="35"/>
       <c r="E12" s="104"/>
-      <c r="F12" s="201" t="s">
+      <c r="F12" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="202"/>
+      <c r="G12" s="176"/>
       <c r="H12" s="137"/>
       <c r="I12" s="51">
         <v>45400</v>
@@ -3910,10 +3910,10 @@
       <c r="C13" s="29"/>
       <c r="D13" s="35"/>
       <c r="E13" s="104"/>
-      <c r="F13" s="201" t="s">
+      <c r="F13" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="202"/>
+      <c r="G13" s="176"/>
       <c r="H13" s="137"/>
       <c r="I13" s="51">
         <v>45401</v>
@@ -3992,10 +3992,10 @@
       <c r="C14" s="29"/>
       <c r="D14" s="35"/>
       <c r="E14" s="104"/>
-      <c r="F14" s="201" t="s">
+      <c r="F14" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="202"/>
+      <c r="G14" s="176"/>
       <c r="H14" s="137"/>
       <c r="I14" s="51">
         <v>45401</v>
@@ -4074,10 +4074,10 @@
       <c r="C15" s="29"/>
       <c r="D15" s="35"/>
       <c r="E15" s="105"/>
-      <c r="F15" s="203" t="s">
+      <c r="F15" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="204"/>
+      <c r="G15" s="178"/>
       <c r="H15" s="138"/>
       <c r="I15" s="149">
         <v>45404</v>
@@ -4088,14 +4088,16 @@
       <c r="K15" s="149">
         <v>45410</v>
       </c>
-      <c r="L15" s="149"/>
+      <c r="L15" s="149">
+        <v>45411</v>
+      </c>
       <c r="M15" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N15" s="52" t="str">
+      <c r="N15" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O15" s="150" t="s">
         <v>38</v>
@@ -4158,10 +4160,10 @@
       <c r="E16" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="212" t="s">
+      <c r="F16" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="213"/>
+      <c r="G16" s="169"/>
       <c r="H16" s="139"/>
       <c r="I16" s="60">
         <v>45400</v>
@@ -4242,10 +4244,10 @@
       <c r="C17" s="29"/>
       <c r="D17" s="35"/>
       <c r="E17" s="104"/>
-      <c r="F17" s="208" t="s">
+      <c r="F17" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="209"/>
+      <c r="G17" s="165"/>
       <c r="H17" s="140"/>
       <c r="I17" s="51">
         <v>45400</v>
@@ -4326,10 +4328,10 @@
       <c r="C18" s="29"/>
       <c r="D18" s="35"/>
       <c r="E18" s="104"/>
-      <c r="F18" s="208" t="s">
+      <c r="F18" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="209"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="138"/>
       <c r="I18" s="51">
         <v>45402</v>
@@ -4410,10 +4412,10 @@
       <c r="C19" s="29"/>
       <c r="D19" s="35"/>
       <c r="E19" s="104"/>
-      <c r="F19" s="208" t="s">
+      <c r="F19" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="209"/>
+      <c r="G19" s="165"/>
       <c r="H19" s="137"/>
       <c r="I19" s="51">
         <v>45401</v>
@@ -4494,10 +4496,10 @@
       <c r="C20" s="29"/>
       <c r="D20" s="35"/>
       <c r="E20" s="104"/>
-      <c r="F20" s="208" t="s">
+      <c r="F20" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="209"/>
+      <c r="G20" s="165"/>
       <c r="H20" s="137"/>
       <c r="I20" s="51">
         <v>45401</v>
@@ -4578,10 +4580,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="35"/>
       <c r="E21" s="104"/>
-      <c r="F21" s="208" t="s">
+      <c r="F21" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="209"/>
+      <c r="G21" s="165"/>
       <c r="H21" s="137"/>
       <c r="I21" s="51">
         <v>45404</v>
@@ -4662,10 +4664,10 @@
       <c r="C22" s="29"/>
       <c r="D22" s="35"/>
       <c r="E22" s="104"/>
-      <c r="F22" s="208" t="s">
+      <c r="F22" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="209"/>
+      <c r="G22" s="165"/>
       <c r="H22" s="141"/>
       <c r="I22" s="51">
         <v>45404</v>
@@ -4758,14 +4760,16 @@
       <c r="K23" s="51">
         <v>45410</v>
       </c>
-      <c r="L23" s="51"/>
+      <c r="L23" s="51">
+        <v>45412</v>
+      </c>
       <c r="M23" s="50">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N23" s="52" t="str">
+      <c r="N23" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O23" s="50"/>
       <c r="P23" s="52" t="s">
@@ -4824,10 +4828,10 @@
       <c r="C24" s="34"/>
       <c r="D24" s="36"/>
       <c r="E24" s="104"/>
-      <c r="F24" s="210" t="s">
+      <c r="F24" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="211"/>
+      <c r="G24" s="167"/>
       <c r="H24" s="143"/>
       <c r="I24" s="149">
         <v>45401</v>
@@ -4914,10 +4918,10 @@
         <v>26</v>
       </c>
       <c r="E25" s="106"/>
-      <c r="F25" s="215" t="s">
+      <c r="F25" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="216"/>
+      <c r="G25" s="172"/>
       <c r="H25" s="144"/>
       <c r="I25" s="155">
         <v>45409</v>
@@ -5002,10 +5006,10 @@
         <v>27</v>
       </c>
       <c r="E26" s="120"/>
-      <c r="F26" s="214" t="s">
+      <c r="F26" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="214"/>
+      <c r="G26" s="170"/>
       <c r="H26" s="145"/>
       <c r="I26" s="100">
         <v>45411</v>
@@ -5076,12 +5080,12 @@
     </row>
     <row r="27" spans="1:50" ht="33" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="205"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
       <c r="H27" s="111"/>
       <c r="I27" s="111"/>
       <c r="J27" s="111"/>
@@ -5093,7 +5097,7 @@
       </c>
       <c r="N27" s="114">
         <f>SUM(N6:N26)</f>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O27" s="112">
         <f>SUM(O6:O26)</f>
@@ -7900,34 +7904,6 @@
     <row r="976" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F3:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="U4:AX4"/>
     <mergeCell ref="U3:AX3"/>
     <mergeCell ref="D5:E5"/>
@@ -7940,6 +7916,34 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F3:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="M6:M26">
@@ -7982,7 +7986,7 @@
       <formula>AND(U$5 &gt;= $I6, U$5 &lt;= $J6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="H6" xr:uid="{481B59C7-FAFC-4436-9B91-CF4D6B0B91A9}"/>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="I6:L26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I6))), AND(ISNUMBER(I6), LEFT(CELL("format", I6))="D"))</formula1>

--- a/산출물/MS-TODO-WBS-정자윤.xlsx
+++ b/산출물/MS-TODO-WBS-정자윤.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Git\Todo\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA51BB4-52A5-4CE8-8A73-2C6D650144B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE15FCC4-CE32-4C2B-B82B-D9275DE4613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트WBS" sheetId="1" r:id="rId1"/>
@@ -2475,107 +2475,6 @@
     <xf numFmtId="9" fontId="28" fillId="11" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2586,6 +2485,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2629,6 +2534,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2885,7 +2885,7 @@
   <dimension ref="A1:AX976"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="20" ySplit="5" topLeftCell="AH6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="20" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
@@ -2933,9 +2933,9 @@
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="12"/>
@@ -3024,141 +3024,141 @@
     </row>
     <row r="3" spans="1:50" ht="21" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="183" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="184"/>
-      <c r="H3" s="202" t="s">
+      <c r="G3" s="187"/>
+      <c r="H3" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="194" t="s">
+      <c r="J3" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="194" t="s">
+      <c r="K3" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="194" t="s">
+      <c r="L3" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="194" t="s">
+      <c r="M3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="194" t="s">
+      <c r="N3" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="194" t="s">
+      <c r="O3" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="194" t="s">
+      <c r="P3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="205" t="s">
+      <c r="Q3" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="207" t="s">
+      <c r="R3" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="210"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="197"/>
-      <c r="AJ3" s="197"/>
-      <c r="AK3" s="197"/>
-      <c r="AL3" s="197"/>
-      <c r="AM3" s="197"/>
-      <c r="AN3" s="197"/>
-      <c r="AO3" s="197"/>
-      <c r="AP3" s="197"/>
-      <c r="AQ3" s="197"/>
-      <c r="AR3" s="197"/>
-      <c r="AS3" s="197"/>
-      <c r="AT3" s="197"/>
-      <c r="AU3" s="197"/>
-      <c r="AV3" s="197"/>
-      <c r="AW3" s="197"/>
-      <c r="AX3" s="197"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="162"/>
+      <c r="AH3" s="162"/>
+      <c r="AI3" s="162"/>
+      <c r="AJ3" s="162"/>
+      <c r="AK3" s="162"/>
+      <c r="AL3" s="162"/>
+      <c r="AM3" s="162"/>
+      <c r="AN3" s="162"/>
+      <c r="AO3" s="162"/>
+      <c r="AP3" s="162"/>
+      <c r="AQ3" s="162"/>
+      <c r="AR3" s="162"/>
+      <c r="AS3" s="162"/>
+      <c r="AT3" s="162"/>
+      <c r="AU3" s="162"/>
+      <c r="AV3" s="162"/>
+      <c r="AW3" s="162"/>
+      <c r="AX3" s="162"/>
     </row>
     <row r="4" spans="1:50" ht="18.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="208"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="175"/>
       <c r="S4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="T4" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="196" t="s">
+      <c r="U4" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
-      <c r="X4" s="196"/>
-      <c r="Y4" s="196"/>
-      <c r="Z4" s="196"/>
-      <c r="AA4" s="196"/>
-      <c r="AB4" s="196"/>
-      <c r="AC4" s="196"/>
-      <c r="AD4" s="196"/>
-      <c r="AE4" s="196"/>
-      <c r="AF4" s="196"/>
-      <c r="AG4" s="196"/>
-      <c r="AH4" s="196"/>
-      <c r="AI4" s="196"/>
-      <c r="AJ4" s="196"/>
-      <c r="AK4" s="196"/>
-      <c r="AL4" s="196"/>
-      <c r="AM4" s="196"/>
-      <c r="AN4" s="196"/>
-      <c r="AO4" s="196"/>
-      <c r="AP4" s="196"/>
-      <c r="AQ4" s="196"/>
-      <c r="AR4" s="196"/>
-      <c r="AS4" s="196"/>
-      <c r="AT4" s="196"/>
-      <c r="AU4" s="196"/>
-      <c r="AV4" s="196"/>
-      <c r="AW4" s="196"/>
-      <c r="AX4" s="196"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="161"/>
+      <c r="AH4" s="161"/>
+      <c r="AI4" s="161"/>
+      <c r="AJ4" s="161"/>
+      <c r="AK4" s="161"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="161"/>
+      <c r="AN4" s="161"/>
+      <c r="AO4" s="161"/>
+      <c r="AP4" s="161"/>
+      <c r="AQ4" s="161"/>
+      <c r="AR4" s="161"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="161"/>
+      <c r="AU4" s="161"/>
+      <c r="AV4" s="161"/>
+      <c r="AW4" s="161"/>
+      <c r="AX4" s="161"/>
     </row>
     <row r="5" spans="1:50" ht="18" customHeight="1">
       <c r="A5" s="3"/>
@@ -3166,13 +3166,13 @@
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="198" t="s">
+      <c r="D5" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="199"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="204"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="171"/>
       <c r="I5" s="108">
         <f>MIN(I6:I26)</f>
         <v>45390</v>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="L5" s="109">
         <f>MAX(L6:L26)</f>
-        <v>45412</v>
+        <v>45426</v>
       </c>
       <c r="M5" s="110">
         <f t="shared" ref="M5:R5" si="0">M27</f>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="N5" s="110">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O5" s="110">
         <f t="shared" si="0"/>
@@ -3324,11 +3324,11 @@
         <v>20</v>
       </c>
       <c r="E6" s="102"/>
-      <c r="F6" s="189" t="s">
+      <c r="F6" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="190"/>
-      <c r="H6" s="192" t="s">
+      <c r="G6" s="193"/>
+      <c r="H6" s="197" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="51">
@@ -3406,11 +3406,11 @@
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
       <c r="E7" s="103"/>
-      <c r="F7" s="181" t="s">
+      <c r="F7" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="182"/>
-      <c r="H7" s="193"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="198"/>
       <c r="I7" s="149">
         <v>45390</v>
       </c>
@@ -3492,10 +3492,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="179" t="s">
+      <c r="F8" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="180"/>
+      <c r="G8" s="185"/>
       <c r="H8" s="133" t="s">
         <v>44</v>
       </c>
@@ -3574,10 +3574,10 @@
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
       <c r="E9" s="103"/>
-      <c r="F9" s="181" t="s">
+      <c r="F9" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="182"/>
+      <c r="G9" s="195"/>
       <c r="H9" s="134" t="s">
         <v>46</v>
       </c>
@@ -3664,10 +3664,10 @@
       <c r="E10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="179" t="s">
+      <c r="F10" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="180"/>
+      <c r="G10" s="185"/>
       <c r="H10" s="135"/>
       <c r="I10" s="155">
         <v>45400</v>
@@ -3746,10 +3746,10 @@
       <c r="E11" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="173" t="s">
+      <c r="F11" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="174"/>
+      <c r="G11" s="200"/>
       <c r="H11" s="136"/>
       <c r="I11" s="60">
         <v>45400</v>
@@ -3826,10 +3826,10 @@
       <c r="C12" s="29"/>
       <c r="D12" s="35"/>
       <c r="E12" s="104"/>
-      <c r="F12" s="175" t="s">
+      <c r="F12" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="176"/>
+      <c r="G12" s="202"/>
       <c r="H12" s="137"/>
       <c r="I12" s="51">
         <v>45400</v>
@@ -3910,10 +3910,10 @@
       <c r="C13" s="29"/>
       <c r="D13" s="35"/>
       <c r="E13" s="104"/>
-      <c r="F13" s="175" t="s">
+      <c r="F13" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="176"/>
+      <c r="G13" s="202"/>
       <c r="H13" s="137"/>
       <c r="I13" s="51">
         <v>45401</v>
@@ -3992,10 +3992,10 @@
       <c r="C14" s="29"/>
       <c r="D14" s="35"/>
       <c r="E14" s="104"/>
-      <c r="F14" s="175" t="s">
+      <c r="F14" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="176"/>
+      <c r="G14" s="202"/>
       <c r="H14" s="137"/>
       <c r="I14" s="51">
         <v>45401</v>
@@ -4074,10 +4074,10 @@
       <c r="C15" s="29"/>
       <c r="D15" s="35"/>
       <c r="E15" s="105"/>
-      <c r="F15" s="177" t="s">
+      <c r="F15" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="178"/>
+      <c r="G15" s="204"/>
       <c r="H15" s="138"/>
       <c r="I15" s="149">
         <v>45404</v>
@@ -4160,10 +4160,10 @@
       <c r="E16" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="168" t="s">
+      <c r="F16" s="212" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="169"/>
+      <c r="G16" s="213"/>
       <c r="H16" s="139"/>
       <c r="I16" s="60">
         <v>45400</v>
@@ -4244,10 +4244,10 @@
       <c r="C17" s="29"/>
       <c r="D17" s="35"/>
       <c r="E17" s="104"/>
-      <c r="F17" s="164" t="s">
+      <c r="F17" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="165"/>
+      <c r="G17" s="209"/>
       <c r="H17" s="140"/>
       <c r="I17" s="51">
         <v>45400</v>
@@ -4328,10 +4328,10 @@
       <c r="C18" s="29"/>
       <c r="D18" s="35"/>
       <c r="E18" s="104"/>
-      <c r="F18" s="164" t="s">
+      <c r="F18" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="165"/>
+      <c r="G18" s="209"/>
       <c r="H18" s="138"/>
       <c r="I18" s="51">
         <v>45402</v>
@@ -4412,10 +4412,10 @@
       <c r="C19" s="29"/>
       <c r="D19" s="35"/>
       <c r="E19" s="104"/>
-      <c r="F19" s="164" t="s">
+      <c r="F19" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="165"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="137"/>
       <c r="I19" s="51">
         <v>45401</v>
@@ -4496,10 +4496,10 @@
       <c r="C20" s="29"/>
       <c r="D20" s="35"/>
       <c r="E20" s="104"/>
-      <c r="F20" s="164" t="s">
+      <c r="F20" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="165"/>
+      <c r="G20" s="209"/>
       <c r="H20" s="137"/>
       <c r="I20" s="51">
         <v>45401</v>
@@ -4580,10 +4580,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="35"/>
       <c r="E21" s="104"/>
-      <c r="F21" s="164" t="s">
+      <c r="F21" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="165"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="137"/>
       <c r="I21" s="51">
         <v>45404</v>
@@ -4664,10 +4664,10 @@
       <c r="C22" s="29"/>
       <c r="D22" s="35"/>
       <c r="E22" s="104"/>
-      <c r="F22" s="164" t="s">
+      <c r="F22" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="165"/>
+      <c r="G22" s="209"/>
       <c r="H22" s="141"/>
       <c r="I22" s="51">
         <v>45404</v>
@@ -4828,10 +4828,10 @@
       <c r="C24" s="34"/>
       <c r="D24" s="36"/>
       <c r="E24" s="104"/>
-      <c r="F24" s="166" t="s">
+      <c r="F24" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="167"/>
+      <c r="G24" s="211"/>
       <c r="H24" s="143"/>
       <c r="I24" s="149">
         <v>45401</v>
@@ -4918,10 +4918,10 @@
         <v>26</v>
       </c>
       <c r="E25" s="106"/>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="172"/>
+      <c r="G25" s="216"/>
       <c r="H25" s="144"/>
       <c r="I25" s="155">
         <v>45409</v>
@@ -5006,10 +5006,10 @@
         <v>27</v>
       </c>
       <c r="E26" s="120"/>
-      <c r="F26" s="170" t="s">
+      <c r="F26" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="170"/>
+      <c r="G26" s="214"/>
       <c r="H26" s="145"/>
       <c r="I26" s="100">
         <v>45411</v>
@@ -5017,15 +5017,19 @@
       <c r="J26" s="100">
         <v>45411</v>
       </c>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
+      <c r="K26" s="100">
+        <v>45426</v>
+      </c>
+      <c r="L26" s="100">
+        <v>45426</v>
+      </c>
       <c r="M26" s="50">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N26" s="52" t="str">
+      <c r="N26" s="52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O26" s="57"/>
       <c r="P26" s="101" t="s">
@@ -5080,12 +5084,12 @@
     </row>
     <row r="27" spans="1:50" ht="33" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
       <c r="H27" s="111"/>
       <c r="I27" s="111"/>
       <c r="J27" s="111"/>
@@ -5097,7 +5101,7 @@
       </c>
       <c r="N27" s="114">
         <f>SUM(N6:N26)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O27" s="112">
         <f>SUM(O6:O26)</f>
@@ -7904,6 +7908,34 @@
     <row r="976" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F3:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="U4:AX4"/>
     <mergeCell ref="U3:AX3"/>
     <mergeCell ref="D5:E5"/>
@@ -7916,34 +7948,6 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F3:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="M6:M26">
